--- a/docs/eDNA 12S metab/example_output/taxonomic_assignments/CommonNames_required.xlsx
+++ b/docs/eDNA 12S metab/example_output/taxonomic_assignments/CommonNames_required.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,6 +408,11 @@
           <t>species</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PhylogenySorting</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -463,6 +468,11 @@
         </is>
       </c>
       <c r="J3" t="inlineStr">
+        <is>
+          <t>Unassigned</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Unassigned</t>
         </is>
